--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H2">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N2">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O2">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P2">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q2">
-        <v>1.016721216979</v>
+        <v>1.631947692497889</v>
       </c>
       <c r="R2">
-        <v>9.150490952810999</v>
+        <v>14.687529232481</v>
       </c>
       <c r="S2">
-        <v>0.003451189832379613</v>
+        <v>0.004629082067041994</v>
       </c>
       <c r="T2">
-        <v>0.003451189832379613</v>
+        <v>0.004629082067041994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H3">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>51.578886</v>
       </c>
       <c r="O3">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P3">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q3">
-        <v>121.720823948818</v>
+        <v>164.1264279976673</v>
       </c>
       <c r="R3">
-        <v>1095.487415539362</v>
+        <v>1477.137851979006</v>
       </c>
       <c r="S3">
-        <v>0.4131729160223732</v>
+        <v>0.4655508923872225</v>
       </c>
       <c r="T3">
-        <v>0.4131729160223733</v>
+        <v>0.4655508923872225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H4">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N4">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O4">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P4">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q4">
-        <v>25.55170675227667</v>
+        <v>41.26414302281989</v>
       </c>
       <c r="R4">
-        <v>229.96536077049</v>
+        <v>371.377287205379</v>
       </c>
       <c r="S4">
-        <v>0.08673350085623729</v>
+        <v>0.1170473204238675</v>
       </c>
       <c r="T4">
-        <v>0.08673350085623729</v>
+        <v>0.1170473204238675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>12.176051</v>
       </c>
       <c r="I5">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J5">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N5">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O5">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P5">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q5">
-        <v>0.5828716200536668</v>
+        <v>0.6938468546567779</v>
       </c>
       <c r="R5">
-        <v>5.245844580483</v>
+        <v>6.244621691911001</v>
       </c>
       <c r="S5">
-        <v>0.001978517390134681</v>
+        <v>0.001968123149369469</v>
       </c>
       <c r="T5">
-        <v>0.001978517390134681</v>
+        <v>0.001968123149369469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.176051</v>
       </c>
       <c r="I6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>51.578886</v>
       </c>
       <c r="O6">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P6">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q6">
         <v>69.78079405102066</v>
@@ -821,10 +821,10 @@
         <v>628.027146459186</v>
       </c>
       <c r="S6">
-        <v>0.2368660778417025</v>
+        <v>0.1979358920941323</v>
       </c>
       <c r="T6">
-        <v>0.2368660778417025</v>
+        <v>0.1979358920941323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.176051</v>
       </c>
       <c r="I7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N7">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O7">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P7">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q7">
-        <v>14.64842521344111</v>
+        <v>17.54406466463878</v>
       </c>
       <c r="R7">
-        <v>131.83582692097</v>
+        <v>157.896581981749</v>
       </c>
       <c r="S7">
-        <v>0.04972306598185736</v>
+        <v>0.04976441064590649</v>
       </c>
       <c r="T7">
-        <v>0.04972306598185736</v>
+        <v>0.04976441064590649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H8">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I8">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J8">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N8">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O8">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P8">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q8">
-        <v>0.3537485511213335</v>
+        <v>0.377883164854</v>
       </c>
       <c r="R8">
-        <v>3.183736960092001</v>
+        <v>3.400948483686</v>
       </c>
       <c r="S8">
-        <v>0.00120077498380186</v>
+        <v>0.001071880054675826</v>
       </c>
       <c r="T8">
-        <v>0.001200774983801859</v>
+        <v>0.001071880054675826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H9">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I9">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J9">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>51.578886</v>
       </c>
       <c r="O9">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P9">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q9">
-        <v>42.35041464082934</v>
+        <v>38.004045309204</v>
       </c>
       <c r="R9">
-        <v>381.153731767464</v>
+        <v>342.036407782836</v>
       </c>
       <c r="S9">
-        <v>0.1437555526182255</v>
+        <v>0.107799928529949</v>
       </c>
       <c r="T9">
-        <v>0.1437555526182255</v>
+        <v>0.107799928529949</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H10">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I10">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J10">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N10">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O10">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P10">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q10">
-        <v>8.890223879808891</v>
+        <v>9.554855852385998</v>
       </c>
       <c r="R10">
-        <v>80.01201491828002</v>
+        <v>85.993702671474</v>
       </c>
       <c r="S10">
-        <v>0.03017724991786869</v>
+        <v>0.02710271418794784</v>
       </c>
       <c r="T10">
-        <v>0.03017724991786868</v>
+        <v>0.02710271418794784</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H11">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I11">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J11">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N11">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O11">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P11">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q11">
-        <v>0.06653713046500001</v>
+        <v>0.07539558164088889</v>
       </c>
       <c r="R11">
-        <v>0.5988341741850001</v>
+        <v>0.678560234768</v>
       </c>
       <c r="S11">
-        <v>0.0002258556862016058</v>
+        <v>0.0002138624519109645</v>
       </c>
       <c r="T11">
-        <v>0.0002258556862016058</v>
+        <v>0.0002138624519109646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H12">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I12">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J12">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>51.578886</v>
       </c>
       <c r="O12">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P12">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q12">
-        <v>7.965757189029999</v>
+        <v>7.582600568885332</v>
       </c>
       <c r="R12">
-        <v>71.69181470126999</v>
+        <v>68.243405119968</v>
       </c>
       <c r="S12">
-        <v>0.02703921169233646</v>
+        <v>0.02150833661907636</v>
       </c>
       <c r="T12">
-        <v>0.02703921169233647</v>
+        <v>0.02150833661907636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H13">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I13">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J13">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N13">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O13">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P13">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q13">
-        <v>1.672176421016667</v>
+        <v>1.906393249256889</v>
       </c>
       <c r="R13">
-        <v>15.04958778915</v>
+        <v>17.157539243312</v>
       </c>
       <c r="S13">
-        <v>0.005676087176881298</v>
+        <v>0.005407557388899826</v>
       </c>
       <c r="T13">
-        <v>0.005676087176881298</v>
+        <v>0.005407557388899827</v>
       </c>
     </row>
   </sheetData>
